--- a/docs/test cases/CCD_CRUISE_PKG/CCD_CRUISE_PKG Package Test Cases.xlsx
+++ b/docs/test cases/CCD_CRUISE_PKG/CCD_CRUISE_PKG Package Test Cases.xlsx
@@ -504,7 +504,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
     <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="str">
@@ -592,7 +592,7 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="str">
@@ -647,7 +647,7 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="str">
@@ -702,7 +702,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="str">
@@ -738,7 +738,7 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="str">
@@ -774,7 +774,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E7" t="str">
@@ -810,7 +810,7 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="str">
@@ -846,7 +846,7 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E9" t="str">
@@ -882,7 +882,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="str">

--- a/docs/test cases/CCD_CRUISE_PKG/CCD_CRUISE_PKG Package Test Cases.xlsx
+++ b/docs/test cases/CCD_CRUISE_PKG/CCD_CRUISE_PKG Package Test Cases.xlsx
@@ -191,18 +191,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,8 +213,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,45 +498,45 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="114.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="str">
@@ -582,17 +576,17 @@
 /</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="str">
@@ -637,17 +631,17 @@
 /</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="str">
@@ -692,17 +686,17 @@
 /</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="str">
@@ -728,17 +722,17 @@
 /</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="str">
@@ -764,17 +758,17 @@
 /</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E7" t="str">
@@ -800,17 +794,17 @@
 /</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="str">
@@ -836,17 +830,17 @@
 /</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E9" t="str">
@@ -872,17 +866,17 @@
 /</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="str">
